--- a/DaySale_2025-05-19_15-32.xlsx
+++ b/DaySale_2025-05-19_15-32.xlsx
@@ -850,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45796.647677399851</v>
+        <v>45796.647825386288</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -859,7 +859,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45796.647677399851</v>
+        <v>45796.647825386288</v>
       </c>
       <c r="K4" s="4"/>
     </row>
